--- a/biology/Histoire de la zoologie et de la botanique/Marie_Antoine_Alexandre_Guilliermond/Marie_Antoine_Alexandre_Guilliermond.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marie_Antoine_Alexandre_Guilliermond/Marie_Antoine_Alexandre_Guilliermond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Antoine Alexandre Guilliermond est un botaniste français, né le 19 août 1876 à Lyon et mort le 1er avril 1945 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est fils de pharmacien, petit-fils d'André Alexandre Guilliermond pharmacien lui aussi, inventeur du cachet et, du côté de sa mère, d’un professeur de médecine.
 Il fait ses études à Lyon. Montrant des dispositions pour l’art, il étudie auprès de Tony Tollet (1857-1953) avant de s’orienter vers la botanique. Il fait ses études à la faculté des sciences de Lyon où il étudie auprès de Maurice Caullery (1868-1958) et de Camille Sauvageau (1861-1931). Dirigé par Gaston Bonnier (1853-1922), il obtient son certificat d'études physiques, chimiques et biologiques en 1896, puis sa licence en sciences naturelles en 1899 et son doctorat en 1902 avec une thèse intitulée Recherches cytologiques sur les levures et quelques moisissures à formes levures.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1912 : Les Levures, O. Doin (Paris) : xii + 565 + xii.
 1928 : Clef dichotomique pour la détermination des levures, Jouve et Cie (Paris) : 124 p.
